--- a/卒研タスク.xlsx
+++ b/卒研タスク.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyara\Desktop\test\Phantasy-Star-Offline\sotukenGame\Sample_15_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sotuken\Phantasy-Star-Offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,22 +916,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="5"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="30"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1300,7 +1300,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="30"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1313,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1328,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="21"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="5"/>
@@ -1371,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1386,7 +1386,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1399,7 +1399,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1416,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="5"/>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1444,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="5"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1498,7 +1498,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="5"/>
@@ -1513,7 +1513,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1530,7 +1530,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="5"/>
@@ -1545,7 +1545,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1569,7 +1569,7 @@
       <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="29" t="s">
         <v>53</v>
       </c>
     </row>
